--- a/Case_Study_Data.xlsx
+++ b/Case_Study_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwatson\Documents\GitHub\counterpart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\watso\OneDrive\Documents\GitHub\Counterpart_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CABAEB-9AB3-4B53-89A9-55060F921525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4415E09-24F2-4511-B0B0-749A6D6D4EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loss Triangles" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Loss Triangles, Cumulative</t>
   </si>
@@ -282,6 +282,9 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>Selection Ult LR</t>
+  </si>
 </sst>
 </file>
 
@@ -294,10 +297,10 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -407,6 +410,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -490,12 +499,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -520,8 +529,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -534,17 +543,17 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -554,25 +563,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -582,36 +589,35 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2740,15 +2746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>721995</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2776,15 +2782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>741044</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3015,25 +3021,25 @@
   </sheetPr>
   <dimension ref="B1:P1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="30" customWidth="1"/>
     <col min="3" max="3" width="15" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="30" customWidth="1"/>
-    <col min="7" max="9" width="12.5703125" style="30"/>
-    <col min="10" max="10" width="15.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="30"/>
+    <col min="4" max="4" width="12.5546875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="30" customWidth="1"/>
+    <col min="7" max="9" width="12.5546875" style="30"/>
+    <col min="10" max="10" width="15.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -3045,14 +3051,14 @@
       <c r="F2" s="32"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
@@ -3061,7 +3067,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
@@ -3070,38 +3076,38 @@
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
+    <row r="6" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="52" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>12</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <f t="shared" ref="D7:F7" si="0">C7+12</f>
         <v>24</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -3111,18 +3117,18 @@
       <c r="J7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>12</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="36">
         <f t="shared" ref="L7:N7" si="1">K7+12</f>
         <v>24</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -3130,179 +3136,179 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36">
+    <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35">
         <v>2018</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>500</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>700</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>800</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>850</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="29">
         <v>1000</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>2018</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>7500</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <v>10500</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>12000</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>12750</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="29">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36">
+    <row r="9" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
         <f t="shared" ref="B9:B10" si="2">B8+1</f>
         <v>2019</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>450</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>560</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>600</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="H9" s="35">
+      <c r="F9" s="29"/>
+      <c r="H9" s="29">
         <v>1000</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" ref="J9:J10" si="3">J8+1</f>
         <v>2019</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <v>6750</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <v>8400</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <v>9000</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="P9" s="35">
+      <c r="N9" s="29"/>
+      <c r="P9" s="29">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36">
+    <row r="10" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>400</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>500</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="H10" s="35">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="H10" s="29">
         <v>1000</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>2020</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="36">
         <v>6000</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>7500</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="P10" s="35">
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="P10" s="29">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="38" t="str">
+      <c r="C13" s="37" t="str">
         <f>C7&amp;"-"&amp;D7</f>
         <v>12-24</v>
       </c>
-      <c r="D13" s="38" t="str">
+      <c r="D13" s="37" t="str">
         <f>D7&amp;"-"&amp;E7</f>
         <v>24-36</v>
       </c>
-      <c r="E13" s="38" t="str">
+      <c r="E13" s="37" t="str">
         <f>E7&amp;"-"&amp;F7</f>
         <v>36-48</v>
       </c>
-      <c r="F13" s="38" t="str">
+      <c r="F13" s="37" t="str">
         <f>F7&amp;"-"&amp;G7</f>
         <v>48-</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="38" t="str">
+      <c r="K13" s="37" t="str">
         <f>K7&amp;"-"&amp;L7</f>
         <v>12-24</v>
       </c>
-      <c r="L13" s="38" t="str">
+      <c r="L13" s="37" t="str">
         <f>L7&amp;"-"&amp;M7</f>
         <v>24-36</v>
       </c>
-      <c r="M13" s="38" t="str">
+      <c r="M13" s="37" t="str">
         <f>M7&amp;"-"&amp;N7</f>
         <v>36-48</v>
       </c>
-      <c r="N13" s="38" t="str">
+      <c r="N13" s="37" t="str">
         <f>N7&amp;"-"&amp;O7</f>
         <v>48-</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <f>B8</f>
         <v>2018</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <f>D8/C8</f>
         <v>1.4</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="38">
         <f>E8/D8</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="38">
         <f>F8/E8</f>
         <v>1.0625</v>
       </c>
@@ -3310,29 +3316,29 @@
         <f>J8</f>
         <v>2018</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="38">
         <f>L8/K8</f>
         <v>1.4</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <f>M8/L8</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="38">
         <f>N8/M8</f>
         <v>1.0625</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <f>B9</f>
         <v>2019</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <f>D9/C9</f>
         <v>1.2444444444444445</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <f>E9/D9</f>
         <v>1.0714285714285714</v>
       </c>
@@ -3340,21 +3346,21 @@
         <f>J9</f>
         <v>2019</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="38">
         <f>L9/K9</f>
         <v>1.2444444444444445</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="38">
         <f>M9/L9</f>
         <v>1.0714285714285714</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <f>B10</f>
         <v>2020</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <f>D10/C10</f>
         <v>1.25</v>
       </c>
@@ -3362,395 +3368,395 @@
         <f>J10</f>
         <v>2020</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="38">
         <f>L10/K10</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38" t="s">
+    <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <f>AVERAGE(C14:C16)</f>
         <v>1.2981481481481481</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="39">
         <f t="shared" ref="D18:E18" si="4">AVERAGE(D14:D16)</f>
         <v>1.1071428571428572</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="39">
         <f t="shared" si="4"/>
         <v>1.0625</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="39">
         <f>AVERAGE(K14:K16)</f>
         <v>1.2981481481481481</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="39">
         <f t="shared" ref="L18:M18" si="5">AVERAGE(L14:L16)</f>
         <v>1.1071428571428572</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="39">
         <f t="shared" si="5"/>
         <v>1.0625</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>1.3</v>
       </c>
-      <c r="D19" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19" s="41">
+      <c r="D19" s="39">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E19" s="39">
         <v>1.05</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <v>1.05</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="39">
         <v>1.3</v>
       </c>
-      <c r="L19" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M19" s="41">
+      <c r="L19" s="39">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M19" s="39">
         <v>1.05</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <v>1.05</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <f>PRODUCT(C19:$F$19)</f>
-        <v>1.5765750000000003</v>
-      </c>
-      <c r="D20" s="41">
+        <v>1.5909075000000006</v>
+      </c>
+      <c r="D20" s="39">
         <f>PRODUCT(D19:$F$19)</f>
-        <v>1.2127500000000002</v>
-      </c>
-      <c r="E20" s="41">
+        <v>1.2237750000000003</v>
+      </c>
+      <c r="E20" s="39">
         <f>PRODUCT(E19:$F$19)</f>
         <v>1.1025</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <f>PRODUCT(F19:$F$19)</f>
         <v>1.05</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="39">
         <f>PRODUCT(K19:N$19)</f>
-        <v>1.5765750000000003</v>
-      </c>
-      <c r="L20" s="41">
+        <v>1.5909075000000006</v>
+      </c>
+      <c r="L20" s="39">
         <f>PRODUCT(L19:O$19)</f>
-        <v>1.2127500000000002</v>
-      </c>
-      <c r="M20" s="41">
+        <v>1.2237750000000003</v>
+      </c>
+      <c r="M20" s="39">
         <f>PRODUCT(M19:P$19)</f>
         <v>1.1025</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <f>PRODUCT(N19:Q$19)</f>
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38" t="s">
+    <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38" t="s">
+      <c r="J22" s="37"/>
+      <c r="K22" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="38">
+    <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="37">
         <f>B14</f>
         <v>2018</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="40">
         <f>H8</f>
         <v>1000</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="41">
         <f ca="1">OFFSET(B8,0,COUNT(C8:F8))</f>
         <v>850</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <f ca="1">D23*F$20</f>
         <v>892.5</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="42">
         <f ca="1">E23/C23</f>
         <v>0.89249999999999996</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="42">
         <f ca="1">D23/C23</f>
         <v>0.85</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="J23" s="38">
+      <c r="H23" s="59"/>
+      <c r="J23" s="37">
         <f>J14</f>
         <v>2018</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="40">
         <f>P8</f>
         <v>10000</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="41">
         <f ca="1">OFFSET(J8,0,COUNT(K8:N8))</f>
         <v>12750</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="41">
         <f ca="1">L23*N$20</f>
         <v>13387.5</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="42">
         <f ca="1">M23/K23</f>
         <v>1.3387500000000001</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="42">
         <f ca="1">L23/K23</f>
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="38">
+    <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="37">
         <f t="shared" ref="B24:B25" si="6">B15</f>
         <v>2019</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="40">
         <f t="shared" ref="C24:C25" si="7">H9</f>
         <v>1000</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="41">
         <f t="shared" ref="D24:D25" ca="1" si="8">OFFSET(B9,0,COUNT(C9:F9))</f>
         <v>600</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="41">
         <f ca="1">D24*E$20</f>
         <v>661.5</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="42">
         <f t="shared" ref="F24:F25" ca="1" si="9">E24/C24</f>
         <v>0.66149999999999998</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="42">
         <f t="shared" ref="G24:G25" ca="1" si="10">D24/C24</f>
         <v>0.6</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="J24" s="38">
+      <c r="H24" s="59"/>
+      <c r="J24" s="37">
         <f t="shared" ref="J24:J25" si="11">J15</f>
         <v>2019</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="40">
         <f t="shared" ref="K24:K25" si="12">P9</f>
         <v>10000</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="41">
         <f t="shared" ref="L24:L25" ca="1" si="13">OFFSET(J9,0,COUNT(K9:N9))</f>
         <v>9000</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="41">
         <f ca="1">L24*M$20</f>
         <v>9922.5</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="42">
         <f t="shared" ref="N24:N25" ca="1" si="14">M24/K24</f>
         <v>0.99224999999999997</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="42">
         <f t="shared" ref="O24:O25" ca="1" si="15">L24/K24</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="37">
         <f t="shared" si="6"/>
         <v>2020</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="40">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="41">
         <f t="shared" ca="1" si="8"/>
         <v>500</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="41">
         <f ca="1">D25*D$20</f>
-        <v>606.37500000000011</v>
-      </c>
-      <c r="F25" s="44">
+        <v>611.88750000000016</v>
+      </c>
+      <c r="F25" s="42">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60637500000000011</v>
-      </c>
-      <c r="G25" s="44">
+        <v>0.61188750000000014</v>
+      </c>
+      <c r="G25" s="42">
         <f t="shared" ca="1" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="H25" s="63"/>
-      <c r="J25" s="38">
+      <c r="H25" s="59"/>
+      <c r="J25" s="37">
         <f t="shared" si="11"/>
         <v>2020</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="40">
         <f t="shared" si="12"/>
         <v>10000</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="41">
         <f t="shared" ca="1" si="13"/>
         <v>7500</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="41">
         <f ca="1">L25*L$20</f>
-        <v>9095.6250000000018</v>
-      </c>
-      <c r="N25" s="44">
+        <v>9178.3125000000018</v>
+      </c>
+      <c r="N25" s="42">
         <f t="shared" ca="1" si="14"/>
-        <v>0.90956250000000016</v>
-      </c>
-      <c r="O25" s="44">
+        <v>0.91783125000000021</v>
+      </c>
+      <c r="O25" s="42">
         <f t="shared" ca="1" si="15"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="44"/>
-      <c r="N26" s="44"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="38" t="s">
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="42"/>
+      <c r="N26" s="42"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="45">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="43">
         <f ca="1">AVERAGE(F23:F25)</f>
-        <v>0.72012500000000002</v>
-      </c>
-      <c r="J27" s="38" t="s">
+        <v>0.72196250000000006</v>
+      </c>
+      <c r="J27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="45">
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="43">
         <f ca="1">AVERAGE(N23:N25)</f>
-        <v>1.0801875000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38" t="s">
+        <v>1.0829437500000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="45">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="43">
         <f ca="1">AVERAGE(F23:F24)</f>
         <v>0.77699999999999991</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="45">
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="43">
         <f ca="1">AVERAGE(N23:N24)</f>
         <v>1.1655</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="46">
+    <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="44">
         <v>0.75</v>
       </c>
-      <c r="J29" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="46">
+      <c r="J29" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="44">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+    <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="47" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="27" t="s">
         <v>33</v>
       </c>
@@ -3764,91 +3770,86 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="47"/>
+      <c r="C34" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="49">
         <v>1</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="49">
         <f>D34*(37/40)+F29*(3/40)</f>
         <v>0.98125000000000007</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="50">
         <f>E34/D34-1</f>
         <v>-1.8749999999999933E-2</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
-      <c r="C35" s="50" t="s">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="47"/>
+      <c r="C35" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="49">
         <v>1.25</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="49">
         <f>D35*(10/40)+N29*(30/40)</f>
         <v>1.1749999999999998</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="50">
         <f>E35/D35-1</f>
         <v>-6.0000000000000164E-2</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="49">
         <v>1.25</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
-      <c r="C36" s="50" t="s">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="47"/>
+      <c r="C36" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="49">
         <v>1.5</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51">
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49">
         <f>D36</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="63" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="59" t="s">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="38" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="37"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -3864,75 +3865,75 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="42" t="str">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="40" t="str">
         <f>C34</f>
         <v>Hazard Group 1</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="53">
         <f>D34</f>
         <v>1</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="49">
         <f>D43*(17/20)+F29*(3/20)</f>
         <v>0.96249999999999991</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="50">
         <f>E43/D43-1</f>
         <v>-3.7500000000000089E-2</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="42" t="str">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="40" t="str">
         <f>C35</f>
         <v>Hazard Group 2</v>
       </c>
-      <c r="D44" s="55">
+      <c r="D44" s="53">
         <f>D35</f>
         <v>1.25</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="49">
         <f>N29</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="50">
         <f>E44/D44-1</f>
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="49">
         <f>E44</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="44"/>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="55"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="56"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="42" t="s">
+      <c r="K44" s="42"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="54"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="38" t="s">
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="54"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="30" t="str">
         <f>C13</f>
         <v>12-24</v>
@@ -3950,54 +3951,54 @@
         <v>48-</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="38">
         <f>C19*1.1</f>
         <v>1.4300000000000002</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="38">
         <f t="shared" ref="D50:G50" si="17">D19*1.1</f>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="E50" s="39">
+        <v>1.2210000000000003</v>
+      </c>
+      <c r="E50" s="38">
         <f t="shared" si="17"/>
         <v>1.1550000000000002</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="38">
         <f t="shared" si="17"/>
         <v>1.1550000000000002</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="39">
         <f>PRODUCT(C$50:$F50)</f>
-        <v>2.3082634575000016</v>
-      </c>
-      <c r="D51" s="41">
+        <v>2.3292476707500023</v>
+      </c>
+      <c r="D51" s="39">
         <f>PRODUCT(D$50:$F50)</f>
-        <v>1.614170250000001</v>
-      </c>
-      <c r="E51" s="41">
+        <v>1.6288445250000012</v>
+      </c>
+      <c r="E51" s="39">
         <f>PRODUCT(E$50:$F50)</f>
         <v>1.3340250000000007</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="39">
         <f>PRODUCT(F$50:$F50)</f>
         <v>1.1550000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="30" t="s">
         <v>47</v>
       </c>
@@ -4005,61 +4006,61 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="30">
         <f>B23</f>
         <v>2018</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="42">
         <f ca="1">G23*F$51</f>
         <v>0.98175000000000023</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="42">
         <f ca="1">O23*F$51</f>
         <v>1.4726250000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="30">
         <f t="shared" ref="B55:B56" si="18">B24</f>
         <v>2019</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="42">
         <f ca="1">G24*E$51</f>
         <v>0.80041500000000043</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="42">
         <f ca="1">O24*E$51</f>
         <v>1.2006225000000006</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="30">
         <f t="shared" si="18"/>
         <v>2020</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="42">
         <f ca="1">G25*D$51</f>
-        <v>0.80708512500000051</v>
-      </c>
-      <c r="D56" s="44">
+        <v>0.8144222625000006</v>
+      </c>
+      <c r="D56" s="42">
         <f ca="1">O25*D$51</f>
-        <v>1.2106276875000008</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="64" t="s">
+        <v>1.2216333937500008</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="65">
+      <c r="C57" s="61">
         <v>0.9</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="61">
         <v>1.3</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="27" t="s">
         <v>33</v>
       </c>
@@ -4073,1039 +4074,1039 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="42" t="str">
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="40" t="str">
         <f>C43</f>
         <v>Hazard Group 1</v>
       </c>
-      <c r="D60" s="55">
+      <c r="D60" s="53">
         <f>D43</f>
         <v>1</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="49">
         <f>D60*(37/40)+C57*(3/40)</f>
         <v>0.99250000000000005</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="50">
         <f>E60/D60-1</f>
         <v>-7.4999999999999512E-3</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="49">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="42" t="str">
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="40" t="str">
         <f>C44</f>
         <v>Hazard Group 2</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D61" s="53">
         <f>D44</f>
         <v>1.25</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="49">
         <f>D61*(10/40)+D57*(30/40)</f>
         <v>1.2875000000000001</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="50">
         <f>E61/D61-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="49">
         <f>D61</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="42" t="s">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="59" t="s">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5120,21 +5121,21 @@
   </sheetPr>
   <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -5168,7 +5169,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
@@ -5182,7 +5183,7 @@
         <v>6.9604999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
@@ -5203,7 +5204,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>11</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="62" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="str">
@@ -5228,7 +5229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>1.0000009999999999</v>
@@ -5254,7 +5255,7 @@
         <v>6.9604999430000367</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="9">
         <v>1000000</v>
@@ -5280,7 +5281,7 @@
         <v>7.8526572195955922</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="9">
         <v>2500000</v>
@@ -5306,7 +5307,7 @@
         <v>8.0306158558201197</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13"/>
       <c r="C11" s="9">
         <v>5000000</v>
@@ -5332,7 +5333,7 @@
         <v>8.1750534479544097</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="9">
         <v>10000000</v>
@@ -5358,7 +5359,7 @@
         <v>8.3279470131336613</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="9">
         <v>15000000</v>
@@ -5384,7 +5385,7 @@
         <v>8.4213039661285531</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="9">
         <v>20000000</v>
@@ -5410,7 +5411,7 @@
         <v>8.4892965513578726</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="9">
         <v>25000000</v>
@@ -5436,7 +5437,7 @@
         <v>8.5430387872472799</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="9">
         <v>50000000</v>
@@ -5462,7 +5463,7 @@
         <v>8.7155665138092342</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
       <c r="C17" s="9">
         <v>75000000</v>
@@ -5488,7 +5489,7 @@
         <v>8.8204087149461152</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
       <c r="C18" s="9">
         <v>100000000</v>
@@ -5514,7 +5515,7 @@
         <v>8.89655021341615</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="9">
         <v>250000000</v>
@@ -5540,7 +5541,7 @@
         <v>9.1487751254188581</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
@@ -5548,7 +5549,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -5560,7 +5561,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="15">
         <v>0</v>
@@ -5572,7 +5573,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="15">
         <v>1000</v>
@@ -5584,7 +5585,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13"/>
       <c r="C24" s="15">
         <v>2500</v>
@@ -5596,7 +5597,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="13"/>
       <c r="C25" s="15">
         <v>5000</v>
@@ -5608,7 +5609,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13"/>
       <c r="C26" s="15">
         <v>7500</v>
@@ -5620,7 +5621,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="15">
         <v>10000</v>
@@ -5632,7 +5633,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="15">
         <v>15000</v>
@@ -5644,7 +5645,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="15">
         <v>20000</v>
@@ -5656,7 +5657,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
       <c r="C30" s="15">
         <v>25000</v>
@@ -5668,7 +5669,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13"/>
       <c r="C31" s="15">
         <v>35000</v>
@@ -5680,7 +5681,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13"/>
       <c r="C32" s="15">
         <v>50000</v>
@@ -5692,7 +5693,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="15">
         <v>75000</v>
@@ -5704,7 +5705,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13"/>
       <c r="C34" s="15">
         <v>100000</v>
@@ -5716,7 +5717,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
       <c r="C35" s="15">
         <v>125000</v>
@@ -5728,7 +5729,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="15">
         <v>150000</v>
@@ -5740,7 +5741,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="15">
         <v>175000</v>
@@ -5752,7 +5753,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="15">
         <v>200000</v>
@@ -5764,7 +5765,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="15">
         <v>225000</v>
@@ -5776,7 +5777,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="13"/>
       <c r="C40" s="15">
         <v>250000</v>
@@ -5788,7 +5789,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="13"/>
       <c r="C41" s="15">
         <v>275000</v>
@@ -5800,7 +5801,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
       <c r="C42" s="15">
         <v>300000</v>
@@ -5812,7 +5813,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
       <c r="C43" s="15">
         <v>325000</v>
@@ -5824,7 +5825,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="13"/>
       <c r="C44" s="15">
         <v>350000</v>
@@ -5836,7 +5837,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="13"/>
       <c r="C45" s="15">
         <v>375000</v>
@@ -5848,7 +5849,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
       <c r="C46" s="15">
         <v>400000</v>
@@ -5860,7 +5861,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13"/>
       <c r="C47" s="15">
         <v>425000</v>
@@ -5872,7 +5873,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="13"/>
       <c r="C48" s="15">
         <v>450000</v>
@@ -5884,7 +5885,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="13"/>
       <c r="C49" s="15">
         <v>475000</v>
@@ -5896,7 +5897,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13"/>
       <c r="C50" s="15">
         <v>500000</v>
@@ -5908,7 +5909,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
       <c r="C51" s="15">
         <v>525000</v>
@@ -5920,7 +5921,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
       <c r="C52" s="15">
         <v>550000</v>
@@ -5932,7 +5933,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13"/>
       <c r="C53" s="15">
         <v>575000</v>
@@ -5944,7 +5945,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="15">
         <v>600000</v>
@@ -5956,7 +5957,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="15">
         <v>625000</v>
@@ -5968,7 +5969,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="15">
         <v>650000</v>
@@ -5980,7 +5981,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="13"/>
       <c r="C57" s="15">
         <v>675000</v>
@@ -5992,7 +5993,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="13"/>
       <c r="C58" s="15">
         <v>700000</v>
@@ -6004,7 +6005,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="13"/>
       <c r="C59" s="15">
         <v>725000</v>
@@ -6016,7 +6017,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="13"/>
       <c r="C60" s="15">
         <v>750000</v>
@@ -6028,7 +6029,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="13"/>
       <c r="C61" s="15">
         <v>775000</v>
@@ -6040,7 +6041,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13"/>
       <c r="C62" s="15">
         <v>800000</v>
@@ -6052,7 +6053,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="13"/>
       <c r="C63" s="15">
         <v>825000</v>
@@ -6064,7 +6065,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="13"/>
       <c r="C64" s="15">
         <v>850000</v>
@@ -6076,7 +6077,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="13"/>
       <c r="C65" s="15">
         <v>875000</v>
@@ -6088,7 +6089,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="13"/>
       <c r="C66" s="15">
         <v>900000</v>
@@ -6100,7 +6101,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="13"/>
       <c r="C67" s="15">
         <v>925000</v>
@@ -6112,7 +6113,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="13"/>
       <c r="C68" s="15">
         <v>950000</v>
@@ -6124,7 +6125,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="13"/>
       <c r="C69" s="15">
         <v>975000</v>
@@ -6136,7 +6137,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="13"/>
       <c r="C70" s="15">
         <v>1000000</v>
@@ -6148,7 +6149,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="13"/>
       <c r="C71" s="15">
         <v>2000000</v>
@@ -6160,7 +6161,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="13"/>
       <c r="C72" s="15">
         <v>2500000</v>
@@ -6172,7 +6173,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="13"/>
       <c r="C73" s="15">
         <v>3000000</v>
@@ -6184,7 +6185,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13"/>
       <c r="C74" s="15">
         <v>4000000</v>
@@ -6196,7 +6197,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="13"/>
       <c r="C75" s="15">
         <v>5000000</v>
@@ -6208,7 +6209,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="13"/>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
@@ -6216,7 +6217,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
@@ -6224,7 +6225,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
         <v>16</v>
       </c>
@@ -6236,7 +6237,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="13"/>
       <c r="C79" s="19" t="s">
         <v>17</v>
@@ -6248,7 +6249,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="13"/>
       <c r="C80" s="19" t="s">
         <v>18</v>
@@ -6260,7 +6261,7 @@
       <c r="F80" s="18"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="13"/>
       <c r="C81" s="19" t="s">
         <v>19</v>
@@ -6272,7 +6273,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="13"/>
       <c r="C82" s="19"/>
       <c r="D82" s="18"/>
@@ -6280,933 +6281,933 @@
       <c r="F82" s="18"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
